--- a/model_codes.xlsx
+++ b/model_codes.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haziqj/SynologyDrive/Research/iprior-wicher/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haziqj/GitHub/iprior-interaction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7286A-04B7-C44C-B3AD-1D039DC1A237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27024DDB-AE56-EF41-9C5A-AC0AFE8608FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40760" yWindow="5340" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5B05967B-C30A-3843-8A91-ABD02AFA3A75}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21800" xr2:uid="{5B05967B-C30A-3843-8A91-ABD02AFA3A75}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="model_codes" sheetId="1" r:id="rId1"/>
     <sheet name="beta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1F23D5-4F8A-EB4F-9976-57BE853E3D33}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,6 +850,29 @@
         <v>0</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
     </row>
@@ -862,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B1BEBD-4AE6-B54E-AC20-091071314D20}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
